--- a/研究生院校.xlsx
+++ b/研究生院校.xlsx
@@ -1,48 +1,92 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="1260" windowWidth="20760" windowHeight="10880"/>
+    <workbookView windowWidth="14250" windowHeight="6450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>中国科学院深圳先进技术研究院</t>
   </si>
   <si>
+    <t>http://www.siat.cas.cn/yjsjy2016/zsjs2016/</t>
+  </si>
+  <si>
+    <t>085211计算机技术
+101思想政治理论②204英语二③302数学二④863计算机学科综合（专业）</t>
+  </si>
+  <si>
     <t>清华大学深圳研究生院</t>
   </si>
   <si>
+    <t>http://www.sz.tsinghua.edu.cn/publish/sz/107/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">085211计算机技术 
+①101 思想政治理论②201 英语一③301 数学一④912 计算机专业基础综合 </t>
+  </si>
+  <si>
+    <t>仅招收原单位定向生（在职培养），报考类别为定向就业，在学期间不转档案和户口，不提供住宿。</t>
+  </si>
+  <si>
     <t>北京大学深圳研究生院</t>
   </si>
   <si>
+    <t>085212软件工程
+①101 思想政治理论②201 英语一③301 数学一④822 计算机基础综合</t>
+  </si>
+  <si>
     <t>哈尔滨工业大学深圳研究生院</t>
   </si>
   <si>
+    <t>http://www.hitsz.edu.cn/article/id-44.html</t>
+  </si>
+  <si>
+    <t>085211计算机技术
+①101政治②201英语一 ③301数学（一）④854 计算机基础（含数据结构、计算机组成原理）</t>
+  </si>
+  <si>
+    <t>我校的非全日制研究生及全日制工商管理硕士（MBA）只招收定向就业类别考生。</t>
+  </si>
+  <si>
     <t>深圳大学</t>
   </si>
   <si>
+    <t>https://zsb.szu.edu.cn/zss.html</t>
+  </si>
+  <si>
+    <t>085211计算机技术(专业学位)
+[101]思想政治理论；[204]英语二；[301]数学一；[408]计算机学科专业基础综合；</t>
+  </si>
+  <si>
+    <t>无计算机非全</t>
+  </si>
+  <si>
     <t>中山大学</t>
   </si>
   <si>
     <t>http://graduate.sysu.edu.cn/gra02/g02a/index.htm</t>
   </si>
   <si>
-    <t xml:space="preserve"> ①101|思想政治理论   ②204|英语二   ③302|数学二   ④408|计算机学科专业基础综合</t>
+    <t>085211 计算机技术（专业学位）
+（1）101 思想政治理论
+（2）204 英语二
+（3）302 数学二
+（4）408 计算机学科专业基础综合
+复试专业课：S6705013 离散数学与C程序设计</t>
+  </si>
+  <si>
+    <t>我校非全日制招生学科专业、方向只接收“定向就业”考生，即报考我校非全日制招生学科专业、方向的考生，报考类别不能选择“非定向就业”。</t>
   </si>
   <si>
     <t>华南理工大学</t>
@@ -51,105 +95,496 @@
     <t>http://admission.scut.edu.cn/zsc/Master/M_recruit/index.html</t>
   </si>
   <si>
+    <t>085211计算机技术
+①101|思想政治理论   ②204|英语二   ③302|数学二   ④408|计算机学科专业基础综合</t>
+  </si>
+  <si>
     <t>我校非全日制研究生只限录取定向就业类别</t>
   </si>
   <si>
+    <t>华南农业大学</t>
+  </si>
+  <si>
+    <t>http://yzb.scau.edu.cn/2138/list.htm</t>
+  </si>
+  <si>
+    <t>085211计算机技术
+ ①101|思想政治理论   ②204|英语二   ③302|数学二   ④854|数据结构与计算机组成原理</t>
+  </si>
+  <si>
+    <t>广东工业大学</t>
+  </si>
+  <si>
+    <t>http://yzw.gdut.edu.cn/zs/sszsxx.htm</t>
+  </si>
+  <si>
+    <t>085211计算机技术
+①(101)思想政治理论②(204)英语二③(302)数学二④(831)数据结构与C语言</t>
+  </si>
+  <si>
     <t>湖南大学</t>
   </si>
   <si>
+    <t>http://gra.hnu.edu.cn/zsxx/sszs.htm</t>
+  </si>
+  <si>
+    <t>085211 计算机技术
+1101 思想政治理论
+2204 英语二
+3302 数学二
+4829 计算机程序设计、830 数字
+电路与逻辑设计任选一
+复试专业课
+F1005 操作系统、F1006 数据库系
+统、F1007 计算机网络、F1008 软
+件工程、F1009 编译原理任选一
+085212 软件工程
+1101 思想政治理论
+2204 英语二
+3302 数学二
+4829 计算机程序设计
+复试专业课
+F1005 操作系统、F1006 数据库系
+统、F1007 计算机网络、F1008 软
+件工程、F1011 数字逻辑任选一</t>
+  </si>
+  <si>
     <t>中南大学</t>
   </si>
   <si>
+    <t>http://gra.its.csu.edu.cn/yjsy/PYGL/wjtz1_2.html</t>
+  </si>
+  <si>
+    <t>085211计算机技术（工程硕士专业学位）
+①101思想政治理论②204英语二③302数学二④943数据结构
+085212软件工程（工程硕士专业学位）
+①101思想政治理论②204英语二③302数学二④944软件工程</t>
+  </si>
+  <si>
     <t>华中科技大学</t>
   </si>
   <si>
+    <t>http://gszs.hust.edu.cn/</t>
+  </si>
+  <si>
+    <t>085211 计算机技术
+101思想政治理论
+204英语二
+301数学一
+834计算机专业基础综合(数
+据结构、计算机网络)</t>
+  </si>
+  <si>
     <t>武汉大学</t>
   </si>
   <si>
+    <t>http://www.gs.whu.edu.cn/zsxx/sszs.htm</t>
+  </si>
+  <si>
+    <t>085211计算机技术
+①101思想政治理论②204英语二③302数学二④933计算机基础</t>
+  </si>
+  <si>
+    <t>非全日制计划限招定向就业生。</t>
+  </si>
+  <si>
     <t>长沙理工大学</t>
   </si>
   <si>
-    <t>湖南师范大学</t>
+    <t>http://www.csust.edu.cn/yjsy/zsxxw/sszs.htm</t>
+  </si>
+  <si>
+    <t>085211 计 算 机 技 术 ( 专 业 学位)
+101 思想政治理论204 英语二302 数学二850 数据结构;851 软件工程任选一
+085212 软件工程(专业学位)
+101 思想政治理论204 英语二302 数学二850 数据结构;851 软件工程任选一
+085239 项目管理(专业学位)
+101 思想政治理论204 英语二303 数学三850 数据结构;851 软件工程任选一</t>
   </si>
   <si>
     <t>武汉理工大学</t>
   </si>
   <si>
-    <t>华南农业大学</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://yzb.scau.edu.cn/2138/list.htm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> ①101|思想政治理论   ②204|英语二   ③302|数学二   ④854|数据结构与计算机组成原理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东工业大学</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://yzw.gdut.edu.cn/zs/sszsxx.htm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>①(101)思想政治理论
-②(204)英语二
-③(302)数学二
-④(831)数据结构与 C 语言</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://gra.its.csu.edu.cn/yjsy/PYGL/wjtz1_2.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>①101 思想政治理论
-②204 英语二
-③302 数学二
-④943 数据结构 / ④944 软件工程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>http://gd.whut.edu.cn/channels/17.html</t>
+  </si>
+  <si>
+    <t>计算机技术（085211）
+①101思想政治理论②204英语二③302数学二④408计算机学科专业基础综合、852数据结构（C语言版）（选一）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -157,28 +592,327 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+  <cellStyles count="50">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
+    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
+    <cellStyle name="货币" xfId="8" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
+    <cellStyle name="计算" xfId="16" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
+    <cellStyle name="适中" xfId="18" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
+    <cellStyle name="好" xfId="20" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
+    <cellStyle name="汇总" xfId="22" builtinId="25"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
+    <cellStyle name="标题" xfId="34" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
+    <cellStyle name="注释" xfId="38" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -187,7 +921,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -439,58 +1173,173 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A2:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="15" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="31.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="52.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="3.33203125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="15" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.375" style="1" customWidth="1"/>
+    <col min="6" max="9" width="3.375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="15" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" ht="40.5" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>260</v>
+      </c>
+      <c r="F2" s="1">
+        <v>34</v>
+      </c>
+      <c r="G2" s="1">
+        <v>34</v>
+      </c>
+      <c r="H2" s="1">
+        <v>51</v>
+      </c>
+      <c r="I2" s="1">
+        <v>51</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" ht="94.5" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1">
+        <v>310</v>
+      </c>
+      <c r="F3" s="1">
+        <v>50</v>
+      </c>
+      <c r="G3" s="1">
+        <v>50</v>
+      </c>
+      <c r="H3" s="1">
+        <v>80</v>
+      </c>
+      <c r="I3" s="1">
+        <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" ht="40.5" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1">
+        <v>300</v>
+      </c>
+      <c r="F4" s="1">
+        <v>50</v>
+      </c>
+      <c r="G4" s="1">
+        <v>45</v>
+      </c>
+      <c r="H4" s="1">
+        <v>80</v>
+      </c>
+      <c r="I4" s="1">
+        <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" ht="81" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1">
+        <v>320</v>
+      </c>
+      <c r="F5" s="1">
+        <v>50</v>
+      </c>
+      <c r="G5" s="1">
+        <v>50</v>
+      </c>
+      <c r="H5" s="1">
+        <v>75</v>
+      </c>
+      <c r="I5" s="1">
+        <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" ht="40.5" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1">
+        <v>260</v>
+      </c>
+      <c r="F6" s="1">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1">
+        <v>34</v>
+      </c>
+      <c r="H6" s="1">
+        <v>51</v>
+      </c>
+      <c r="I6" s="1">
+        <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="45">
+    <row r="7" ht="135" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="E7" s="1">
         <v>290</v>
@@ -508,21 +1357,21 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="45">
+    <row r="8" ht="40.5" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E8" s="1">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="F8" s="1">
         <v>50</v>
@@ -531,21 +1380,21 @@
         <v>50</v>
       </c>
       <c r="H8" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I8" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="45">
-      <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
+    <row r="9" ht="40.5" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="E9" s="1">
         <v>260</v>
@@ -563,31 +1412,67 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="60">
-      <c r="A10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
+    <row r="10" ht="40.5" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="1">
+        <v>260</v>
+      </c>
+      <c r="F10" s="1">
+        <v>34</v>
+      </c>
+      <c r="G10" s="1">
+        <v>34</v>
+      </c>
+      <c r="H10" s="1">
+        <v>51</v>
+      </c>
+      <c r="I10" s="1">
+        <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" ht="270" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="1">
+        <v>305</v>
+      </c>
+      <c r="F11" s="1">
+        <v>45</v>
+      </c>
+      <c r="G11" s="1">
+        <v>45</v>
+      </c>
+      <c r="H11" s="1">
+        <v>70</v>
+      </c>
+      <c r="I11" s="1">
+        <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="60">
+    <row r="12" ht="94.5" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E12" s="1">
         <v>305</v>
@@ -605,42 +1490,129 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" ht="81" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>37</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="1">
+        <v>345</v>
+      </c>
+      <c r="F13" s="1">
+        <v>50</v>
+      </c>
+      <c r="G13" s="1">
+        <v>50</v>
+      </c>
+      <c r="H13" s="1">
+        <v>85</v>
+      </c>
+      <c r="I13" s="1">
+        <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" ht="40.5" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="1">
+        <v>310</v>
+      </c>
+      <c r="F14" s="1">
+        <v>50</v>
+      </c>
+      <c r="G14" s="1">
+        <v>50</v>
+      </c>
+      <c r="H14" s="1">
+        <v>80</v>
+      </c>
+      <c r="I14" s="1">
+        <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" ht="148.5" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="1">
+        <v>260</v>
+      </c>
+      <c r="F15" s="1">
+        <v>34</v>
+      </c>
+      <c r="G15" s="1">
+        <v>34</v>
+      </c>
+      <c r="H15" s="1">
+        <v>51</v>
+      </c>
+      <c r="I15" s="1">
+        <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" ht="54" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>47</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="1">
+        <v>260</v>
+      </c>
+      <c r="F16" s="1">
+        <v>34</v>
+      </c>
+      <c r="G16" s="1">
+        <v>34</v>
+      </c>
+      <c r="H16" s="1">
+        <v>51</v>
+      </c>
+      <c r="I16" s="1">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" tooltip="http://graduate.sysu.edu.cn/gra02/g02a/index.htm"/>
-    <hyperlink ref="B8" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId1" display="http://graduate.sysu.edu.cn/gra02/g02a/index.htm" tooltip="http://graduate.sysu.edu.cn/gra02/g02a/index.htm"/>
+    <hyperlink ref="B8" r:id="rId2" display="http://admission.scut.edu.cn/zsc/Master/M_recruit/index.html"/>
+    <hyperlink ref="B16" r:id="rId3" display="http://gd.whut.edu.cn/channels/17.html"/>
+    <hyperlink ref="B15" r:id="rId4" display="http://www.csust.edu.cn/yjsy/zsxxw/sszs.htm" tooltip="http://www.csust.edu.cn/yjsy/zsxxw/sszs.htm"/>
+    <hyperlink ref="B2" r:id="rId5" display="http://www.siat.cas.cn/yjsjy2016/zsjs2016/"/>
+    <hyperlink ref="B3" r:id="rId6" display="http://www.sz.tsinghua.edu.cn/publish/sz/107/index.html"/>
+    <hyperlink ref="B5" r:id="rId7" display="http://www.hitsz.edu.cn/article/id-44.html"/>
+    <hyperlink ref="B10" r:id="rId8" display="http://yzw.gdut.edu.cn/zs/sszsxx.htm"/>
+    <hyperlink ref="B11" r:id="rId9" display="http://gra.hnu.edu.cn/zsxx/sszs.htm"/>
+    <hyperlink ref="B13" r:id="rId10" display="http://gszs.hust.edu.cn/"/>
+    <hyperlink ref="B14" r:id="rId11" display="http://www.gs.whu.edu.cn/zsxx/sszs.htm"/>
+    <hyperlink ref="B6" r:id="rId12" display="https://zsb.szu.edu.cn/zss.html"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/研究生院校.xlsx
+++ b/研究生院校.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>中国科学院深圳先进技术研究院</t>
   </si>
@@ -23,7 +23,7 @@
   </si>
   <si>
     <t>085211计算机技术
-101思想政治理论②204英语二③302数学二④863计算机学科综合（专业）</t>
+101思想政治理论|204英语二|302数学二|863计算机学科综合（专业）</t>
   </si>
   <si>
     <t>清华大学深圳研究生院</t>
@@ -32,18 +32,89 @@
     <t>http://www.sz.tsinghua.edu.cn/publish/sz/107/index.html</t>
   </si>
   <si>
-    <t xml:space="preserve">085211计算机技术 
-①101 思想政治理论②201 英语一③301 数学一④912 计算机专业基础综合 </t>
-  </si>
-  <si>
-    <t>仅招收原单位定向生（在职培养），报考类别为定向就业，在学期间不转档案和户口，不提供住宿。</t>
+    <r>
+      <t>085211计算机技术 
+101思想政治理论|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>201英语一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>301数学一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">|912计算机专业基础综合 </t>
+    </r>
+  </si>
+  <si>
+    <t>报考类别为定向就业。</t>
   </si>
   <si>
     <t>北京大学深圳研究生院</t>
   </si>
   <si>
-    <t>085212软件工程
-①101 思想政治理论②201 英语一③301 数学一④822 计算机基础综合</t>
+    <t>https://admission.pku.edu.cn/zsxx/sszs/index.htm</t>
+  </si>
+  <si>
+    <r>
+      <t>085212软件工程
+101思想政治理论|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>201英语一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>301数学一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>|822计算机基础综合</t>
+    </r>
   </si>
   <si>
     <t>哈尔滨工业大学深圳研究生院</t>
@@ -52,11 +123,45 @@
     <t>http://www.hitsz.edu.cn/article/id-44.html</t>
   </si>
   <si>
-    <t>085211计算机技术
-①101政治②201英语一 ③301数学（一）④854 计算机基础（含数据结构、计算机组成原理）</t>
-  </si>
-  <si>
-    <t>我校的非全日制研究生及全日制工商管理硕士（MBA）只招收定向就业类别考生。</t>
+    <r>
+      <t>085211计算机技术
+101政治|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>201英语一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> |</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>301数学一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>|854 计算机基础（含数据结构、计算机组成原理）</t>
+    </r>
+  </si>
+  <si>
+    <t>我校的非全日制研究生只招收定向就业类别考生</t>
   </si>
   <si>
     <t>深圳大学</t>
@@ -79,14 +184,10 @@
   </si>
   <si>
     <t>085211 计算机技术（专业学位）
-（1）101 思想政治理论
-（2）204 英语二
-（3）302 数学二
-（4）408 计算机学科专业基础综合
-复试专业课：S6705013 离散数学与C程序设计</t>
-  </si>
-  <si>
-    <t>我校非全日制招生学科专业、方向只接收“定向就业”考生，即报考我校非全日制招生学科专业、方向的考生，报考类别不能选择“非定向就业”。</t>
+101思想政治理论|204英语二|302数学二|408 计算机学科专业基础综合</t>
+  </si>
+  <si>
+    <t>我校非全日制招生学科专业、方向只接收“定向就业”考生</t>
   </si>
   <si>
     <t>华南理工大学</t>
@@ -96,10 +197,71 @@
   </si>
   <si>
     <t>085211计算机技术
-①101|思想政治理论   ②204|英语二   ③302|数学二   ④408|计算机学科专业基础综合</t>
+101思想政治理论|204英语二|302数学二|408计算机学科专业基础综合</t>
   </si>
   <si>
     <t>我校非全日制研究生只限录取定向就业类别</t>
+  </si>
+  <si>
+    <t>湖南大学</t>
+  </si>
+  <si>
+    <t>http://gra.hnu.edu.cn/zsxx/sszs.htm</t>
+  </si>
+  <si>
+    <t>085211 计算机技术
+101思想政治理论|204英语二|302数学二|829 计算机程序设计、830 数字电路与逻辑设计任选一</t>
+  </si>
+  <si>
+    <t>中南大学</t>
+  </si>
+  <si>
+    <t>http://gra.its.csu.edu.cn/yjsy/PYGL/wjtz1_2.html</t>
+  </si>
+  <si>
+    <t>085211计算机技术（工程硕士专业学位）
+101思想政治理论|204英语二|302数学二|943数据结构</t>
+  </si>
+  <si>
+    <t>华中科技大学</t>
+  </si>
+  <si>
+    <t>http://gszs.hust.edu.cn/</t>
+  </si>
+  <si>
+    <r>
+      <t>085211 计算机技术
+101思想政治理论|204英语二|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>301数学一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>|834计算机专业基础综合(数据结构、计算机网络)</t>
+    </r>
+  </si>
+  <si>
+    <t>武汉大学</t>
+  </si>
+  <si>
+    <t>http://www.gs.whu.edu.cn/zsxx/sszs.htm</t>
+  </si>
+  <si>
+    <t>085211计算机技术
+101思想政治理论|204英语二|302数学二|933计算机基础</t>
+  </si>
+  <si>
+    <t>非全日制计划限招定向就业生。</t>
   </si>
   <si>
     <t>华南农业大学</t>
@@ -122,86 +284,6 @@
 ①(101)思想政治理论②(204)英语二③(302)数学二④(831)数据结构与C语言</t>
   </si>
   <si>
-    <t>湖南大学</t>
-  </si>
-  <si>
-    <t>http://gra.hnu.edu.cn/zsxx/sszs.htm</t>
-  </si>
-  <si>
-    <t>085211 计算机技术
-1101 思想政治理论
-2204 英语二
-3302 数学二
-4829 计算机程序设计、830 数字
-电路与逻辑设计任选一
-复试专业课
-F1005 操作系统、F1006 数据库系
-统、F1007 计算机网络、F1008 软
-件工程、F1009 编译原理任选一
-085212 软件工程
-1101 思想政治理论
-2204 英语二
-3302 数学二
-4829 计算机程序设计
-复试专业课
-F1005 操作系统、F1006 数据库系
-统、F1007 计算机网络、F1008 软
-件工程、F1011 数字逻辑任选一</t>
-  </si>
-  <si>
-    <t>中南大学</t>
-  </si>
-  <si>
-    <t>http://gra.its.csu.edu.cn/yjsy/PYGL/wjtz1_2.html</t>
-  </si>
-  <si>
-    <t>085211计算机技术（工程硕士专业学位）
-①101思想政治理论②204英语二③302数学二④943数据结构
-085212软件工程（工程硕士专业学位）
-①101思想政治理论②204英语二③302数学二④944软件工程</t>
-  </si>
-  <si>
-    <t>华中科技大学</t>
-  </si>
-  <si>
-    <t>http://gszs.hust.edu.cn/</t>
-  </si>
-  <si>
-    <t>085211 计算机技术
-101思想政治理论
-204英语二
-301数学一
-834计算机专业基础综合(数
-据结构、计算机网络)</t>
-  </si>
-  <si>
-    <t>武汉大学</t>
-  </si>
-  <si>
-    <t>http://www.gs.whu.edu.cn/zsxx/sszs.htm</t>
-  </si>
-  <si>
-    <t>085211计算机技术
-①101思想政治理论②204英语二③302数学二④933计算机基础</t>
-  </si>
-  <si>
-    <t>非全日制计划限招定向就业生。</t>
-  </si>
-  <si>
-    <t>长沙理工大学</t>
-  </si>
-  <si>
-    <t>http://www.csust.edu.cn/yjsy/zsxxw/sszs.htm</t>
-  </si>
-  <si>
-    <t>085211 计 算 机 技 术 ( 专 业 学位)
-101 思想政治理论204 英语二302 数学二850 数据结构;851 软件工程任选一
-085212 软件工程(专业学位)
-101 思想政治理论204 英语二302 数学二850 数据结构;851 软件工程任选一
-085239 项目管理(专业学位)
-101 思想政治理论204 英语二303 数学三850 数据结构;851 软件工程任选一</t>
-  </si>
-  <si>
     <t>武汉理工大学</t>
   </si>
   <si>
@@ -210,6 +292,16 @@
   <si>
     <t>计算机技术（085211）
 ①101思想政治理论②204英语二③302数学二④408计算机学科专业基础综合、852数据结构（C语言版）（选一）</t>
+  </si>
+  <si>
+    <t>长沙理工大学</t>
+  </si>
+  <si>
+    <t>http://www.csust.edu.cn/yjsy/zsxxw/sszs.htm</t>
+  </si>
+  <si>
+    <t>085211 计 算 机 技 术 ( 专 业 学位) / 085212 软件工程(专业学位)
+101思想政治理论|204 英语二|302 数学二|850 数据结构;851 软件工程任选一</t>
   </si>
 </sst>
 </file>
@@ -231,9 +323,51 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,49 +376,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -698,64 +789,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -776,16 +867,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -797,28 +888,28 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -827,19 +918,19 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -850,13 +941,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1175,16 +1266,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:I16"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="39.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
     <col min="5" max="5" width="4.375" style="1" customWidth="1"/>
@@ -1192,53 +1283,79 @@
     <col min="10" max="16384" width="15" style="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" ht="40.5" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>260</v>
+      </c>
+      <c r="F1" s="1">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1">
+        <v>51</v>
+      </c>
+    </row>
     <row r="2" ht="40.5" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E2" s="1">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="F2" s="1">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H2" s="1">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="I2" s="1">
-        <v>51</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="3" ht="94.5" spans="1:9">
+    <row r="3" ht="40.5" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="F3" s="1">
         <v>50</v>
       </c>
       <c r="G3" s="1">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H3" s="1">
         <v>80</v>
@@ -1249,106 +1366,112 @@
     </row>
     <row r="4" ht="40.5" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E4" s="1">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="F4" s="1">
         <v>50</v>
       </c>
       <c r="G4" s="1">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H4" s="1">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I4" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="5" ht="81" spans="1:9">
+    <row r="5" ht="40.5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="E5" s="1">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="F5" s="1">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1">
+        <v>34</v>
+      </c>
+      <c r="H5" s="1">
+        <v>51</v>
+      </c>
+      <c r="I5" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" ht="54" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1">
+        <v>290</v>
+      </c>
+      <c r="F6" s="1">
+        <v>45</v>
+      </c>
+      <c r="G6" s="1">
+        <v>45</v>
+      </c>
+      <c r="H6" s="1">
+        <v>70</v>
+      </c>
+      <c r="I6" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" ht="40.5" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1">
+        <v>300</v>
+      </c>
+      <c r="F7" s="1">
         <v>50</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G7" s="1">
         <v>50</v>
-      </c>
-      <c r="H5" s="1">
-        <v>75</v>
-      </c>
-      <c r="I5" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" ht="40.5" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="1">
-        <v>260</v>
-      </c>
-      <c r="F6" s="1">
-        <v>34</v>
-      </c>
-      <c r="G6" s="1">
-        <v>34</v>
-      </c>
-      <c r="H6" s="1">
-        <v>51</v>
-      </c>
-      <c r="I6" s="1">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" ht="135" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1">
-        <v>290</v>
-      </c>
-      <c r="F7" s="1">
-        <v>45</v>
-      </c>
-      <c r="G7" s="1">
-        <v>45</v>
       </c>
       <c r="H7" s="1">
         <v>70</v>
@@ -1357,203 +1480,122 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" ht="40.5" spans="1:9">
+    <row r="8" ht="54" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F8" s="1">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G8" s="1">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H8" s="1">
         <v>70</v>
       </c>
       <c r="I8" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" ht="40.5" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1">
-        <v>260</v>
+        <v>305</v>
       </c>
       <c r="F9" s="1">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G9" s="1">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H9" s="1">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="I9" s="1">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" ht="40.5" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="E10" s="1">
-        <v>260</v>
+        <v>345</v>
       </c>
       <c r="F10" s="1">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G10" s="1">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H10" s="1">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="I10" s="1">
-        <v>51</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="11" ht="270" spans="1:9">
+    <row r="11" ht="40.5" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E11" s="1">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F11" s="1">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G11" s="1">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H11" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I11" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="12" ht="94.5" spans="1:9">
-      <c r="A12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="1">
-        <v>305</v>
-      </c>
-      <c r="F12" s="1">
-        <v>45</v>
-      </c>
-      <c r="G12" s="1">
-        <v>45</v>
-      </c>
-      <c r="H12" s="1">
-        <v>70</v>
-      </c>
-      <c r="I12" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" ht="81" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="1" t="s">
+    <row r="15" ht="40.5" spans="1:9">
+      <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="1">
-        <v>345</v>
-      </c>
-      <c r="F13" s="1">
-        <v>50</v>
-      </c>
-      <c r="G13" s="1">
-        <v>50</v>
-      </c>
-      <c r="H13" s="1">
-        <v>85</v>
-      </c>
-      <c r="I13" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" ht="40.5" spans="1:9">
-      <c r="A14" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="1">
-        <v>310</v>
-      </c>
-      <c r="F14" s="1">
-        <v>50</v>
-      </c>
-      <c r="G14" s="1">
-        <v>50</v>
-      </c>
-      <c r="H14" s="1">
-        <v>80</v>
-      </c>
-      <c r="I14" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" ht="148.5" spans="1:9">
-      <c r="A15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="E15" s="1">
         <v>260</v>
@@ -1571,15 +1613,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" ht="54" spans="1:9">
+    <row r="16" ht="40.5" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E16" s="1">
         <v>260</v>
@@ -1594,23 +1636,76 @@
         <v>51</v>
       </c>
       <c r="I16" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" ht="54" spans="1:9">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="1">
+        <v>260</v>
+      </c>
+      <c r="F17" s="1">
+        <v>34</v>
+      </c>
+      <c r="G17" s="1">
+        <v>34</v>
+      </c>
+      <c r="H17" s="1">
+        <v>51</v>
+      </c>
+      <c r="I17" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" ht="54" spans="1:9">
+      <c r="A18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="1">
+        <v>260</v>
+      </c>
+      <c r="F18" s="1">
+        <v>34</v>
+      </c>
+      <c r="G18" s="1">
+        <v>34</v>
+      </c>
+      <c r="H18" s="1">
+        <v>51</v>
+      </c>
+      <c r="I18" s="1">
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" display="http://graduate.sysu.edu.cn/gra02/g02a/index.htm" tooltip="http://graduate.sysu.edu.cn/gra02/g02a/index.htm"/>
-    <hyperlink ref="B8" r:id="rId2" display="http://admission.scut.edu.cn/zsc/Master/M_recruit/index.html"/>
-    <hyperlink ref="B16" r:id="rId3" display="http://gd.whut.edu.cn/channels/17.html"/>
-    <hyperlink ref="B15" r:id="rId4" display="http://www.csust.edu.cn/yjsy/zsxxw/sszs.htm" tooltip="http://www.csust.edu.cn/yjsy/zsxxw/sszs.htm"/>
-    <hyperlink ref="B2" r:id="rId5" display="http://www.siat.cas.cn/yjsjy2016/zsjs2016/"/>
-    <hyperlink ref="B3" r:id="rId6" display="http://www.sz.tsinghua.edu.cn/publish/sz/107/index.html"/>
-    <hyperlink ref="B5" r:id="rId7" display="http://www.hitsz.edu.cn/article/id-44.html"/>
-    <hyperlink ref="B10" r:id="rId8" display="http://yzw.gdut.edu.cn/zs/sszsxx.htm"/>
-    <hyperlink ref="B11" r:id="rId9" display="http://gra.hnu.edu.cn/zsxx/sszs.htm"/>
-    <hyperlink ref="B13" r:id="rId10" display="http://gszs.hust.edu.cn/"/>
-    <hyperlink ref="B14" r:id="rId11" display="http://www.gs.whu.edu.cn/zsxx/sszs.htm"/>
-    <hyperlink ref="B6" r:id="rId12" display="https://zsb.szu.edu.cn/zss.html"/>
+    <hyperlink ref="B6" r:id="rId1" display="http://graduate.sysu.edu.cn/gra02/g02a/index.htm" tooltip="http://graduate.sysu.edu.cn/gra02/g02a/index.htm"/>
+    <hyperlink ref="B7" r:id="rId2" display="http://admission.scut.edu.cn/zsc/Master/M_recruit/index.html"/>
+    <hyperlink ref="B17" r:id="rId3" display="http://gd.whut.edu.cn/channels/17.html"/>
+    <hyperlink ref="B18" r:id="rId4" display="http://www.csust.edu.cn/yjsy/zsxxw/sszs.htm" tooltip="http://www.csust.edu.cn/yjsy/zsxxw/sszs.htm"/>
+    <hyperlink ref="B1" r:id="rId5" display="http://www.siat.cas.cn/yjsjy2016/zsjs2016/"/>
+    <hyperlink ref="B2" r:id="rId6" display="http://www.sz.tsinghua.edu.cn/publish/sz/107/index.html"/>
+    <hyperlink ref="B4" r:id="rId7" display="http://www.hitsz.edu.cn/article/id-44.html"/>
+    <hyperlink ref="B16" r:id="rId8" display="http://yzw.gdut.edu.cn/zs/sszsxx.htm"/>
+    <hyperlink ref="B8" r:id="rId9" display="http://gra.hnu.edu.cn/zsxx/sszs.htm"/>
+    <hyperlink ref="B10" r:id="rId10" display="http://gszs.hust.edu.cn/"/>
+    <hyperlink ref="B11" r:id="rId11" display="http://www.gs.whu.edu.cn/zsxx/sszs.htm"/>
+    <hyperlink ref="B5" r:id="rId12" display="https://zsb.szu.edu.cn/zss.html"/>
+    <hyperlink ref="B3" r:id="rId13" display="https://admission.pku.edu.cn/zsxx/sszs/index.htm"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/研究生院校.xlsx
+++ b/研究生院校.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103">
   <si>
     <t>中国科学院深圳先进技术研究院</t>
   </si>
@@ -24,6 +26,59 @@
   <si>
     <t>085211计算机技术
 101思想政治理论|204英语二|302数学二|863计算机学科综合（专业）</t>
+  </si>
+  <si>
+    <t>全日制不可调剂非全</t>
+  </si>
+  <si>
+    <t>湖南大学</t>
+  </si>
+  <si>
+    <t>http://gra.hnu.edu.cn/zsxx/sszs.htm</t>
+  </si>
+  <si>
+    <t>085211 计算机技术
+085212 软件工程
+101思想政治理论|204英语二|302数学二|829 计算机程序设计或830 数字电路与逻辑设计</t>
+  </si>
+  <si>
+    <t>全日制可调剂非全</t>
+  </si>
+  <si>
+    <t>中南大学</t>
+  </si>
+  <si>
+    <t>http://gra.its.csu.edu.cn/yjsy/PYGL/wjtz1_2.html</t>
+  </si>
+  <si>
+    <t>085211计算机技术（工程硕士专业学位）
+101思想政治理论|204英语二|302数学二|943数据结构
+085212 软件工程(工程硕士专业学位)
+101 思想政治理论|204 英语二|302 数学二|944 软件工程</t>
+  </si>
+  <si>
+    <t>中山大学</t>
+  </si>
+  <si>
+    <t>http://graduate.sysu.edu.cn/gra02/g02a/index.htm</t>
+  </si>
+  <si>
+    <r>
+      <t>085211 计算机技术（专业学位）
+085212 软件工程（专业学位）
+101思想政治理论|204英语二|302数学二|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>408 计算机学科专业基础综合</t>
+    </r>
+  </si>
+  <si>
+    <t>我校非全日制招生学科专业、方向只接收“定向就业”考生</t>
   </si>
   <si>
     <t>清华大学深圳研究生院</t>
@@ -40,6 +95,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>201英语一</t>
@@ -48,6 +104,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>|</t>
@@ -56,6 +113,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>301数学一</t>
@@ -64,6 +122,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">|912计算机专业基础综合 </t>
@@ -87,6 +146,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>201英语一</t>
@@ -95,6 +155,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>|</t>
@@ -103,6 +164,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>301数学一</t>
@@ -111,6 +173,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>|822计算机基础综合</t>
@@ -131,6 +194,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>201英语一</t>
@@ -139,6 +203,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> |</t>
@@ -147,6 +212,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>301数学一</t>
@@ -155,6 +221,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>|854 计算机基础（含数据结构、计算机组成原理）</t>
@@ -174,20 +241,7 @@
 [101]思想政治理论；[204]英语二；[301]数学一；[408]计算机学科专业基础综合；</t>
   </si>
   <si>
-    <t>无计算机非全</t>
-  </si>
-  <si>
-    <t>中山大学</t>
-  </si>
-  <si>
-    <t>http://graduate.sysu.edu.cn/gra02/g02a/index.htm</t>
-  </si>
-  <si>
-    <t>085211 计算机技术（专业学位）
-101思想政治理论|204英语二|302数学二|408 计算机学科专业基础综合</t>
-  </si>
-  <si>
-    <t>我校非全日制招生学科专业、方向只接收“定向就业”考生</t>
+    <t>无计算机相关非全</t>
   </si>
   <si>
     <t>华南理工大学</t>
@@ -196,31 +250,24 @@
     <t>http://admission.scut.edu.cn/zsc/Master/M_recruit/index.html</t>
   </si>
   <si>
-    <t>085211计算机技术
-101思想政治理论|204英语二|302数学二|408计算机学科专业基础综合</t>
+    <r>
+      <t>085211计算机技术
+101思想政治理论|204英语二|302数学二|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>408计算机学科专业基础综合</t>
+    </r>
   </si>
   <si>
     <t>我校非全日制研究生只限录取定向就业类别</t>
   </si>
   <si>
-    <t>湖南大学</t>
-  </si>
-  <si>
-    <t>http://gra.hnu.edu.cn/zsxx/sszs.htm</t>
-  </si>
-  <si>
-    <t>085211 计算机技术
-101思想政治理论|204英语二|302数学二|829 计算机程序设计、830 数字电路与逻辑设计任选一</t>
-  </si>
-  <si>
-    <t>中南大学</t>
-  </si>
-  <si>
-    <t>http://gra.its.csu.edu.cn/yjsy/PYGL/wjtz1_2.html</t>
-  </si>
-  <si>
-    <t>085211计算机技术（工程硕士专业学位）
-101思想政治理论|204英语二|302数学二|943数据结构</t>
+    <t>只接收普通全日制本科毕业生调剂</t>
   </si>
   <si>
     <t>华中科技大学</t>
@@ -237,6 +284,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>301数学一</t>
@@ -245,6 +293,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>|834计算机专业基础综合(数据结构、计算机网络)</t>
@@ -264,6 +313,9 @@
     <t>非全日制计划限招定向就业生。</t>
   </si>
   <si>
+    <t>？</t>
+  </si>
+  <si>
     <t>华南农业大学</t>
   </si>
   <si>
@@ -302,6 +354,150 @@
   <si>
     <t>085211 计 算 机 技 术 ( 专 业 学位) / 085212 软件工程(专业学位)
 101思想政治理论|204 英语二|302 数学二|850 数据结构;851 软件工程任选一</t>
+  </si>
+  <si>
+    <t>政治</t>
+  </si>
+  <si>
+    <t>惊呼考研</t>
+  </si>
+  <si>
+    <t>考研政治</t>
+  </si>
+  <si>
+    <t>粉笔考研</t>
+  </si>
+  <si>
+    <t>肖秀荣</t>
+  </si>
+  <si>
+    <t>命题人讲真题</t>
+  </si>
+  <si>
+    <t>肖秀荣1000题</t>
+  </si>
+  <si>
+    <t>肖秀荣精讲精练？</t>
+  </si>
+  <si>
+    <t>肖秀荣时事与政策以及当代世界经济与政治</t>
+  </si>
+  <si>
+    <t>肖秀荣八件套、肖秀荣四件套</t>
+  </si>
+  <si>
+    <t>风中劲草</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>新东方绿皮乱序单词书</t>
+  </si>
+  <si>
+    <t>何凯文长难句解读</t>
+  </si>
+  <si>
+    <t>考研真相</t>
+  </si>
+  <si>
+    <t>何凯文微信</t>
+  </si>
+  <si>
+    <t>百词斩</t>
+  </si>
+  <si>
+    <t>张剑英语一真题</t>
+  </si>
+  <si>
+    <t>新东方英二真题</t>
+  </si>
+  <si>
+    <t>口袋题库</t>
+  </si>
+  <si>
+    <t>默默记单词</t>
+  </si>
+  <si>
+    <t>Anki</t>
+  </si>
+  <si>
+    <t>张剑黄皮书真题</t>
+  </si>
+  <si>
+    <t>王江涛考研英语满分范文背诵</t>
+  </si>
+  <si>
+    <t>有道词典</t>
+  </si>
+  <si>
+    <t>知米背单词</t>
+  </si>
+  <si>
+    <t>扇贝单词</t>
+  </si>
+  <si>
+    <t>数学</t>
+  </si>
+  <si>
+    <t>张宇1000题</t>
+  </si>
+  <si>
+    <t>张宇四套卷 八套卷</t>
+  </si>
+  <si>
+    <t>合工大超越5套卷</t>
+  </si>
+  <si>
+    <t>李永乐6+2</t>
+  </si>
+  <si>
+    <t>李永乐复习全书</t>
+  </si>
+  <si>
+    <t>张宇考研真题大全解</t>
+  </si>
+  <si>
+    <t>张宇高等数学十八讲</t>
+  </si>
+  <si>
+    <t>李永乐线性代数辅导讲义</t>
+  </si>
+  <si>
+    <t>张宇概率论及数理统计九讲</t>
+  </si>
+  <si>
+    <t>同济高数课本、线代课本</t>
+  </si>
+  <si>
+    <t>张宇高数18讲（数学二只需要看12讲左右）</t>
+  </si>
+  <si>
+    <t>660题（数学二实际只有520题）</t>
+  </si>
+  <si>
+    <t>《高等数学》同济七版，经典的一套书</t>
+  </si>
+  <si>
+    <t>《线性代数》同济五版</t>
+  </si>
+  <si>
+    <t>专业</t>
+  </si>
+  <si>
+    <t>王道</t>
+  </si>
+  <si>
+    <t>7-8月单词为主</t>
+  </si>
+  <si>
+    <t>9-11月刷真题，整理大作文模板</t>
+  </si>
+  <si>
+    <t>12月刷真题，作文训练</t>
+  </si>
+  <si>
+    <t>考研只做真题，不要做模拟题</t>
   </si>
 </sst>
 </file>
@@ -309,12 +505,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -323,6 +519,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -331,6 +528,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -338,7 +542,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,15 +563,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,30 +648,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,7 +671,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -427,58 +685,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -490,187 +713,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,8 +910,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,22 +920,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,16 +965,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -761,26 +1004,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -789,165 +1012,171 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1266,448 +1495,754 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.375" style="1" customWidth="1"/>
-    <col min="6" max="9" width="3.375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="15" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.0583333333333" style="4" customWidth="1"/>
+    <col min="3" max="3" width="81.25" style="4" customWidth="1"/>
+    <col min="4" max="4" width="29.6833333333333" style="4" customWidth="1"/>
+    <col min="5" max="5" width="4.375" style="4" customWidth="1"/>
+    <col min="6" max="9" width="3.375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="20.4666666666667" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="15" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:9">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="27" spans="1:10">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="4">
         <v>260</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="4">
         <v>34</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="4">
         <v>34</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="4">
         <v>51</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="4">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" ht="40.5" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="2" ht="40.5" spans="1:10">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
+        <v>305</v>
+      </c>
+      <c r="F2" s="4">
+        <v>45</v>
+      </c>
+      <c r="G2" s="4">
+        <v>45</v>
+      </c>
+      <c r="H2" s="4">
+        <v>70</v>
+      </c>
+      <c r="I2" s="4">
+        <v>80</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="54" spans="1:10">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4">
+        <v>305</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45</v>
+      </c>
+      <c r="H3" s="4">
+        <v>70</v>
+      </c>
+      <c r="I3" s="4">
+        <v>70</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="40.5" spans="1:10">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4">
+        <v>290</v>
+      </c>
+      <c r="F4" s="4">
+        <v>45</v>
+      </c>
+      <c r="G4" s="4">
+        <v>45</v>
+      </c>
+      <c r="H4" s="4">
+        <v>70</v>
+      </c>
+      <c r="I4" s="4">
+        <v>70</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" ht="40.5" spans="1:9">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4">
         <v>310</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F5" s="4">
         <v>50</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G5" s="4">
         <v>50</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H5" s="4">
         <v>80</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I5" s="4">
         <v>80</v>
       </c>
     </row>
-    <row r="3" ht="40.5" spans="1:9">
-      <c r="A3" s="1" t="s">
+    <row r="6" ht="40.5" spans="1:9">
+      <c r="A6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="4">
+        <v>300</v>
+      </c>
+      <c r="F6" s="4">
+        <v>50</v>
+      </c>
+      <c r="G6" s="4">
+        <v>45</v>
+      </c>
+      <c r="H6" s="4">
+        <v>80</v>
+      </c>
+      <c r="I6" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="1:9">
+      <c r="A7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="4">
+        <v>320</v>
+      </c>
+      <c r="F7" s="4">
+        <v>50</v>
+      </c>
+      <c r="G7" s="4">
+        <v>50</v>
+      </c>
+      <c r="H7" s="4">
+        <v>75</v>
+      </c>
+      <c r="I7" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" ht="27" spans="1:9">
+      <c r="A8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="4">
+        <v>260</v>
+      </c>
+      <c r="F8" s="4">
+        <v>34</v>
+      </c>
+      <c r="G8" s="4">
+        <v>34</v>
+      </c>
+      <c r="H8" s="4">
+        <v>51</v>
+      </c>
+      <c r="I8" s="4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" ht="40.5" spans="1:10">
+      <c r="A9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="4">
+        <v>300</v>
+      </c>
+      <c r="F9" s="4">
+        <v>50</v>
+      </c>
+      <c r="G9" s="4">
+        <v>50</v>
+      </c>
+      <c r="H9" s="4">
+        <v>70</v>
+      </c>
+      <c r="I9" s="4">
+        <v>70</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" ht="27" spans="1:10">
+      <c r="A10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="6">
+        <v>345</v>
+      </c>
+      <c r="F10" s="4">
+        <v>50</v>
+      </c>
+      <c r="G10" s="4">
+        <v>50</v>
+      </c>
+      <c r="H10" s="4">
+        <v>85</v>
+      </c>
+      <c r="I10" s="4">
+        <v>90</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>300</v>
-      </c>
-      <c r="F3" s="1">
+    </row>
+    <row r="11" ht="27" spans="1:10">
+      <c r="A11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="4">
+        <v>310</v>
+      </c>
+      <c r="F11" s="4">
         <v>50</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G11" s="4">
+        <v>50</v>
+      </c>
+      <c r="H11" s="4">
+        <v>80</v>
+      </c>
+      <c r="I11" s="4">
+        <v>80</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" ht="27" spans="1:9">
+      <c r="A15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="1">
-        <v>80</v>
-      </c>
-      <c r="I3" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" ht="40.5" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1">
-        <v>320</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="E15" s="4">
+        <v>260</v>
+      </c>
+      <c r="F15" s="4">
+        <v>34</v>
+      </c>
+      <c r="G15" s="4">
+        <v>34</v>
+      </c>
+      <c r="H15" s="4">
+        <v>51</v>
+      </c>
+      <c r="I15" s="4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" ht="27" spans="1:9">
+      <c r="A16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="4">
+        <v>260</v>
+      </c>
+      <c r="F16" s="4">
+        <v>34</v>
+      </c>
+      <c r="G16" s="4">
+        <v>34</v>
+      </c>
+      <c r="H16" s="4">
+        <v>51</v>
+      </c>
+      <c r="I16" s="4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" ht="40.5" spans="1:9">
+      <c r="A17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="1">
-        <v>50</v>
-      </c>
-      <c r="H4" s="1">
-        <v>75</v>
-      </c>
-      <c r="I4" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" ht="40.5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="C17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="4">
         <v>260</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F17" s="4">
         <v>34</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G17" s="4">
         <v>34</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H17" s="4">
         <v>51</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I17" s="4">
         <v>51</v>
       </c>
     </row>
-    <row r="6" ht="54" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="1">
-        <v>290</v>
-      </c>
-      <c r="F6" s="1">
-        <v>45</v>
-      </c>
-      <c r="G6" s="1">
-        <v>45</v>
-      </c>
-      <c r="H6" s="1">
-        <v>70</v>
-      </c>
-      <c r="I6" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" ht="40.5" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="1">
-        <v>300</v>
-      </c>
-      <c r="F7" s="1">
-        <v>50</v>
-      </c>
-      <c r="G7" s="1">
-        <v>50</v>
-      </c>
-      <c r="H7" s="1">
-        <v>70</v>
-      </c>
-      <c r="I7" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" ht="54" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="1">
-        <v>305</v>
-      </c>
-      <c r="F8" s="1">
-        <v>45</v>
-      </c>
-      <c r="G8" s="1">
-        <v>45</v>
-      </c>
-      <c r="H8" s="1">
-        <v>70</v>
-      </c>
-      <c r="I8" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" ht="40.5" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="1">
-        <v>305</v>
-      </c>
-      <c r="F9" s="1">
-        <v>45</v>
-      </c>
-      <c r="G9" s="1">
-        <v>45</v>
-      </c>
-      <c r="H9" s="1">
-        <v>70</v>
-      </c>
-      <c r="I9" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" ht="40.5" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="3" t="s">
+    <row r="18" ht="27" spans="1:9">
+      <c r="A18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="4">
+        <v>260</v>
+      </c>
+      <c r="F18" s="4">
         <v>34</v>
       </c>
-      <c r="E10" s="1">
-        <v>345</v>
-      </c>
-      <c r="F10" s="1">
-        <v>50</v>
-      </c>
-      <c r="G10" s="1">
-        <v>50</v>
-      </c>
-      <c r="H10" s="1">
-        <v>85</v>
-      </c>
-      <c r="I10" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" ht="40.5" spans="1:9">
-      <c r="A11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="1">
-        <v>310</v>
-      </c>
-      <c r="F11" s="1">
-        <v>50</v>
-      </c>
-      <c r="G11" s="1">
-        <v>50</v>
-      </c>
-      <c r="H11" s="1">
-        <v>80</v>
-      </c>
-      <c r="I11" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" ht="40.5" spans="1:9">
-      <c r="A15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="1">
-        <v>260</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="G18" s="4">
         <v>34</v>
       </c>
-      <c r="G15" s="1">
-        <v>34</v>
-      </c>
-      <c r="H15" s="1">
+      <c r="H18" s="4">
         <v>51</v>
       </c>
-      <c r="I15" s="1">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" ht="40.5" spans="1:9">
-      <c r="A16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="1">
-        <v>260</v>
-      </c>
-      <c r="F16" s="1">
-        <v>34</v>
-      </c>
-      <c r="G16" s="1">
-        <v>34</v>
-      </c>
-      <c r="H16" s="1">
-        <v>51</v>
-      </c>
-      <c r="I16" s="1">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" ht="54" spans="1:9">
-      <c r="A17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="1">
-        <v>260</v>
-      </c>
-      <c r="F17" s="1">
-        <v>34</v>
-      </c>
-      <c r="G17" s="1">
-        <v>34</v>
-      </c>
-      <c r="H17" s="1">
-        <v>51</v>
-      </c>
-      <c r="I17" s="1">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" ht="54" spans="1:9">
-      <c r="A18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="1">
-        <v>260</v>
-      </c>
-      <c r="F18" s="1">
-        <v>34</v>
-      </c>
-      <c r="G18" s="1">
-        <v>34</v>
-      </c>
-      <c r="H18" s="1">
-        <v>51</v>
-      </c>
-      <c r="I18" s="1">
+      <c r="I18" s="4">
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="http://graduate.sysu.edu.cn/gra02/g02a/index.htm" tooltip="http://graduate.sysu.edu.cn/gra02/g02a/index.htm"/>
-    <hyperlink ref="B7" r:id="rId2" display="http://admission.scut.edu.cn/zsc/Master/M_recruit/index.html"/>
+    <hyperlink ref="B4" r:id="rId1" display="http://graduate.sysu.edu.cn/gra02/g02a/index.htm" tooltip="http://graduate.sysu.edu.cn/gra02/g02a/index.htm"/>
+    <hyperlink ref="B9" r:id="rId2" display="http://admission.scut.edu.cn/zsc/Master/M_recruit/index.html"/>
     <hyperlink ref="B17" r:id="rId3" display="http://gd.whut.edu.cn/channels/17.html"/>
     <hyperlink ref="B18" r:id="rId4" display="http://www.csust.edu.cn/yjsy/zsxxw/sszs.htm" tooltip="http://www.csust.edu.cn/yjsy/zsxxw/sszs.htm"/>
     <hyperlink ref="B1" r:id="rId5" display="http://www.siat.cas.cn/yjsjy2016/zsjs2016/"/>
-    <hyperlink ref="B2" r:id="rId6" display="http://www.sz.tsinghua.edu.cn/publish/sz/107/index.html"/>
-    <hyperlink ref="B4" r:id="rId7" display="http://www.hitsz.edu.cn/article/id-44.html"/>
+    <hyperlink ref="B5" r:id="rId6" display="http://www.sz.tsinghua.edu.cn/publish/sz/107/index.html" tooltip="http://www.sz.tsinghua.edu.cn/publish/sz/107/index.html"/>
+    <hyperlink ref="B7" r:id="rId7" display="http://www.hitsz.edu.cn/article/id-44.html"/>
     <hyperlink ref="B16" r:id="rId8" display="http://yzw.gdut.edu.cn/zs/sszsxx.htm"/>
-    <hyperlink ref="B8" r:id="rId9" display="http://gra.hnu.edu.cn/zsxx/sszs.htm"/>
+    <hyperlink ref="B2" r:id="rId9" display="http://gra.hnu.edu.cn/zsxx/sszs.htm"/>
     <hyperlink ref="B10" r:id="rId10" display="http://gszs.hust.edu.cn/"/>
     <hyperlink ref="B11" r:id="rId11" display="http://www.gs.whu.edu.cn/zsxx/sszs.htm"/>
-    <hyperlink ref="B5" r:id="rId12" display="https://zsb.szu.edu.cn/zss.html"/>
-    <hyperlink ref="B3" r:id="rId13" display="https://admission.pku.edu.cn/zsxx/sszs/index.htm"/>
+    <hyperlink ref="B8" r:id="rId12" display="https://zsb.szu.edu.cn/zss.html" tooltip="https://zsb.szu.edu.cn/zss.html"/>
+    <hyperlink ref="B6" r:id="rId13" display="https://admission.pku.edu.cn/zsxx/sszs/index.htm"/>
+    <hyperlink ref="B3" r:id="rId14" display="http://gra.its.csu.edu.cn/yjsy/PYGL/wjtz1_2.html"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:A53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="45.125" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/研究生院校.xlsx
+++ b/研究生院校.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14250" windowHeight="6450"/>
+    <workbookView windowWidth="16785" windowHeight="6450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114">
   <si>
     <t>中国科学院深圳先进技术研究院</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>085211 计算机技术（专业学位）
 085212 软件工程（专业学位）
 101思想政治理论|204英语二|302数学二|</t>
@@ -72,6 +78,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>408 计算机学科专业基础综合</t>
@@ -88,6 +95,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>085211计算机技术 
 101思想政治理论|</t>
     </r>
@@ -139,6 +152,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>085212软件工程
 101思想政治理论|</t>
     </r>
@@ -187,6 +206,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>085211计算机技术
 101政治|</t>
     </r>
@@ -251,6 +276,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>085211计算机技术
 101思想政治理论|204英语二|302数学二|</t>
     </r>
@@ -258,6 +289,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>408计算机学科专业基础综合</t>
@@ -277,6 +309,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>085211 计算机技术
 101思想政治理论|204英语二|</t>
     </r>
@@ -395,15 +433,27 @@
     <t>新东方绿皮乱序单词书</t>
   </si>
   <si>
+    <t>7-8月单词为主</t>
+  </si>
+  <si>
     <t>何凯文长难句解读</t>
   </si>
   <si>
+    <t>9-11月刷真题，整理大作文模板</t>
+  </si>
+  <si>
     <t>考研真相</t>
   </si>
   <si>
+    <t>12月刷真题，作文训练</t>
+  </si>
+  <si>
     <t>何凯文微信</t>
   </si>
   <si>
+    <t>考研只做真题，不要做模拟题</t>
+  </si>
+  <si>
     <t>百词斩</t>
   </si>
   <si>
@@ -488,16 +538,49 @@
     <t>王道</t>
   </si>
   <si>
-    <t>7-8月单词为主</t>
-  </si>
-  <si>
-    <t>9-11月刷真题，整理大作文模板</t>
-  </si>
-  <si>
-    <t>12月刷真题，作文训练</t>
-  </si>
-  <si>
-    <t>考研只做真题，不要做模拟题</t>
+    <t>中国工商银行</t>
+  </si>
+  <si>
+    <t>软件开发中心-软件开发岗</t>
+  </si>
+  <si>
+    <t>广州市</t>
+  </si>
+  <si>
+    <t>1、参与项目可行性分析；
+2、参与应用系统的架构设计和落地实施；
+3、负责应用系统的需求分析、功能设计、系统设计、编码、技术测试、推广及维护支持工作，并完成相关技术文档的编写；
+4、参与生产环境中相关系统问题的排查和分析、性能调整；
+5、负责相关技术人员的培训和指导。</t>
+  </si>
+  <si>
+    <t>1、熟悉JAVA、C/C++、HTML5编程技术、APP设计开发；熟悉WAS等中间件、WebsPhere、J2EE开发；熟悉Oracle技术、PL/SQL编程技术；
+2、具有较强的工作责任心，良好的沟通和协调能力，严谨、细致、踏实的工作作风和积极主动的工作态度；
+3、有银行金融类业务、互联网金融业务等相关IT系统研发经验的优先考虑。</t>
+  </si>
+  <si>
+    <t>招商银行</t>
+  </si>
+  <si>
+    <t>总行-小企业金融部-数据分析岗</t>
+  </si>
+  <si>
+    <t>深圳</t>
+  </si>
+  <si>
+    <t>1.负责整合小企业客户相关的行内外信息和业务数据，对数据进行挖掘、统计分析，形成相应的数据分析报告和分析结论；
+2.负责对海量业务数据进行分析挖掘，挖掘客户的经营和风险特征，并以此建立数据挖掘模型和预测模型，为客户营销、风险管理以及运营决策提供业务分析及数据支持；
+3.探索数据分析方法和业务中的应用场景，推动有价值的数据分析工具、挖掘模式的设计、开发与应用；
+4.负责数据分析和应用相关的业务系统建设，编写对应的系统开发需求，并完成系统测试、以及系统应用推广。</t>
+  </si>
+  <si>
+    <t>1.30周岁以下，品行端正，全日制重点本科及以上学历，具有计算机、数据挖掘、信息管理、统计学等专业背景；
+2.具备较强文字分析和数据处理能力，具有较强的语言表达能力、人际关系沟通和组织协调能力；
+3.具有较强的责任心和团队精神，热爱本职工作，能承受较大的工作压力；
+4.熟悉关系数据库技术和大数据技术工具，如SQL\Spark\MapReduce\Hadoop等，能够熟练使用一种（含）以上数据分析工具，如SAS\SPSS\R\Python等，具有大数据实际项目开发经验或者银行信贷系统、CRM系统等开发经验者优先。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2018-08-31</t>
   </si>
 </sst>
 </file>
@@ -505,12 +588,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -528,16 +618,23 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -548,10 +645,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -563,23 +661,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -593,6 +677,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -603,21 +725,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,71 +761,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -713,19 +789,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,163 +969,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,8 +986,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -921,6 +997,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -940,26 +1031,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -981,26 +1074,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1012,168 +1088,174 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1497,448 +1579,448 @@
   <sheetPr/>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15" style="4" customWidth="1"/>
-    <col min="2" max="2" width="19.0583333333333" style="4" customWidth="1"/>
-    <col min="3" max="3" width="81.25" style="4" customWidth="1"/>
-    <col min="4" max="4" width="29.6833333333333" style="4" customWidth="1"/>
-    <col min="5" max="5" width="4.375" style="4" customWidth="1"/>
-    <col min="6" max="9" width="3.375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="20.4666666666667" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="15" style="4" customWidth="1"/>
+    <col min="1" max="1" width="15" style="7" customWidth="1"/>
+    <col min="2" max="2" width="19.0583333333333" style="7" customWidth="1"/>
+    <col min="3" max="3" width="81.25" style="7" customWidth="1"/>
+    <col min="4" max="4" width="29.6833333333333" style="7" customWidth="1"/>
+    <col min="5" max="5" width="4.375" style="7" customWidth="1"/>
+    <col min="6" max="9" width="3.375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="20.4666666666667" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="15" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" spans="1:10">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="7">
         <v>260</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="7">
         <v>34</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="7">
         <v>34</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="7">
         <v>51</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="7">
         <v>51</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="40.5" spans="1:10">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="7">
         <v>305</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="7">
         <v>45</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="7">
         <v>45</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="7">
         <v>70</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="7">
         <v>80</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="54" spans="1:10">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="7">
         <v>305</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="7">
         <v>45</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="7">
         <v>45</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="7">
         <v>70</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="7">
         <v>70</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="1:10">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="7">
         <v>290</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="7">
         <v>45</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="7">
         <v>45</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="7">
         <v>70</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="7">
         <v>70</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" ht="40.5" spans="1:9">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="7">
         <v>310</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="7">
         <v>50</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="7">
         <v>50</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="7">
         <v>80</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="7">
         <v>80</v>
       </c>
     </row>
     <row r="6" ht="40.5" spans="1:9">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="7">
         <v>300</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="7">
         <v>50</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="7">
         <v>45</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="7">
         <v>80</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="7">
         <v>80</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:9">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="7">
         <v>320</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="7">
         <v>50</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="7">
         <v>50</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="7">
         <v>75</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="7">
         <v>80</v>
       </c>
     </row>
     <row r="8" ht="27" spans="1:9">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="7">
         <v>260</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="7">
         <v>34</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="7">
         <v>34</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="7">
         <v>51</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="7">
         <v>51</v>
       </c>
     </row>
     <row r="9" ht="40.5" spans="1:10">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="7">
         <v>300</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="7">
         <v>50</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="7">
         <v>50</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="7">
         <v>70</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="7">
         <v>70</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:10">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="8">
         <v>345</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="7">
         <v>50</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="7">
         <v>50</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="7">
         <v>85</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="7">
         <v>90</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" ht="27" spans="1:10">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="7">
         <v>310</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="7">
         <v>50</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="7">
         <v>50</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="7">
         <v>80</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="7">
         <v>80</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" ht="27" spans="1:9">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="7">
         <v>260</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="7">
         <v>34</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="7">
         <v>34</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="7">
         <v>51</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="7">
         <v>51</v>
       </c>
     </row>
     <row r="16" ht="27" spans="1:9">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="7">
         <v>260</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="7">
         <v>34</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="7">
         <v>34</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="7">
         <v>51</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="7">
         <v>51</v>
       </c>
     </row>
     <row r="17" ht="40.5" spans="1:9">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="7">
         <v>260</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="7">
         <v>34</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="7">
         <v>34</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="7">
         <v>51</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="7">
         <v>51</v>
       </c>
     </row>
     <row r="18" ht="27" spans="1:9">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="7">
         <v>260</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="7">
         <v>34</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="7">
         <v>34</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="7">
         <v>51</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="7">
         <v>51</v>
       </c>
     </row>
@@ -1967,13 +2049,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A53"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="45.125" customWidth="1"/>
     <col min="2" max="2" width="13.75" customWidth="1"/>
@@ -2005,27 +2087,27 @@
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2034,169 +2116,184 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>69</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>71</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="3" t="s">
-        <v>83</v>
+      <c r="A35" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="3" t="s">
-        <v>84</v>
+      <c r="A36" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="3" t="s">
-        <v>85</v>
+      <c r="A37" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="3" t="s">
-        <v>86</v>
+      <c r="A38" s="6" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="3" t="s">
-        <v>92</v>
+      <c r="A44" s="6" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="3" t="s">
-        <v>93</v>
+      <c r="A45" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="3" t="s">
-        <v>94</v>
+      <c r="A46" s="6" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="3" t="s">
-        <v>95</v>
+      <c r="A47" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="3" t="s">
-        <v>96</v>
+      <c r="A48" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2208,37 +2305,56 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A2:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="31.875" customWidth="1"/>
+    <col min="4" max="4" width="41" customWidth="1"/>
+    <col min="5" max="5" width="47.25" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+    <row r="2" ht="108" spans="1:5">
       <c r="A2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>103</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" ht="175.5" spans="1:6">
       <c r="A3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
